--- a/biology/Zoologie/Aphanus_rolandri/Aphanus_rolandri.xlsx
+++ b/biology/Zoologie/Aphanus_rolandri/Aphanus_rolandri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calyptonotus rolandri, Cimex rolandri
 Aphanus rolandri est une espèce d'insectes dans l'ordre des Hémiptères, du sous-ordre des hétéroptères (punaises) de la famille des Rhyparochromidae, de la sous-famille Rhyparochrominae, et de la tribu des Gonianotini, dans le genre Aphanus.
@@ -512,9 +524,11 @@
           <t>Fonctionnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces punaises mesurent 6,0 à 7,7 mm de long[1]. Les animaux de couleur noire avec leur tache rouge foncé à la base de la membrane alaire sont indubitables[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces punaises mesurent 6,0 à 7,7 mm de long. Les animaux de couleur noire avec leur tache rouge foncé à la base de la membrane alaire sont indubitables.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est répandue en Europe, de la partie occidentale du Sud de la Scandinavie à la Méditerranée et à l'Afrique du Nord. L'espèce est plus rare en Europe de l'Est, son aire de répartition s'étend jusqu'à la Sibérie occidentale et le Caucase. L'espèce n'est pas rare en Allemagne, en particulier à l'ouest, à l'est elle n'est documentée que localement avec des découvertes plus anciennes. En Autriche, elle n'apparaît que localement.
-L'espèce colonise des habitats secs, chauds, ouverts, mais aussi plus humides et partiellement ombragés, quelle que soit leur végétation. Il se produit également dans les zones culturelles et rudérales influencées par l'homme[1].
+L'espèce colonise des habitats secs, chauds, ouverts, mais aussi plus humides et partiellement ombragés, quelle que soit leur végétation. Il se produit également dans les zones culturelles et rudérales influencées par l'homme.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces punaises sont vraisemblablement polyphages, la liaison à certaines plantes n'a pas encore été documentée. Elles tètent des graines au sol, mais parfois aussi des charognes, comme des arthropodes morts, ou des œufs d'insectes. L'hivernage a lieu en groupes parfois importants sous l'écorce lâche des feuillus et des conifères. Au printemps, lorsque la température est plus chaude, les animaux deviennent rapidement actifs et volent rapidement, et la nuit, ils sont également attirés par les sources de lumière artificielle. L'accouplement a lieu principalement en mai. Les mâles meurent peu de temps après. Une génération est formée chaque année[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces punaises sont vraisemblablement polyphages, la liaison à certaines plantes n'a pas encore été documentée. Elles tètent des graines au sol, mais parfois aussi des charognes, comme des arthropodes morts, ou des œufs d'insectes. L'hivernage a lieu en groupes parfois importants sous l'écorce lâche des feuillus et des conifères. Au printemps, lorsque la température est plus chaude, les animaux deviennent rapidement actifs et volent rapidement, et la nuit, ils sont également attirés par les sources de lumière artificielle. L'accouplement a lieu principalement en mai. Les mâles meurent peu de temps après. Une génération est formée chaque année.
 </t>
         </is>
       </c>
